--- a/biology/Botanique/Pelagomonadaceae/Pelagomonadaceae.xlsx
+++ b/biology/Botanique/Pelagomonadaceae/Pelagomonadaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Pelagomonadaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Pelagophyceae et de l’ordre des Pelagomonadales[1]. Le genre type Pelagomonas fut découvert dans le nord de l'Océan Pacifique.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Pelagomonadaceae sont une famille d'algues de l'embranchement des Ochrophyta  de la classe des Pelagophyceae et de l’ordre des Pelagomonadales. Le genre type Pelagomonas fut découvert dans le nord de l'Océan Pacifique.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Pelagomonas, dérivé du grec πελαγοσ / pelagos, « pleine mer ; haute mer »  , et μονασ / monas, « seul, solitaire, isolé », littéralement « monade de haute mer », en référence à la découverte de cet organisme dans le picoplancton océanique.
 </t>
@@ -543,6 +557,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -568,9 +584,11 @@
           <t>Liste genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon AlgaeBase                                           (23 février 2022)[1] et GBIF       (23 février 2022)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon AlgaeBase                                           (23 février 2022) et GBIF       (23 février 2022) :
 Aureococcus Hargraves &amp; Sieburth, 1988
 Chrysophaeum I.F.Lewis &amp; H.F.Bryan, 1941
 Pelagococcus R.E.Norris, 1977
